--- a/C9800-L-C-K9.xlsx
+++ b/C9800-L-C-K9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732ED18-51E8-4AFA-A607-77734E79F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD76F7F-95C9-426D-940F-5D43133EAF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{FE3ACBBD-B518-45D8-9A3F-DA3201E00F72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE3ACBBD-B518-45D8-9A3F-DA3201E00F72}"/>
   </bookViews>
   <sheets>
     <sheet name="C9800-L-C-K9" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>VLANs tối đa</t>
   </si>
   <si>
-    <t>2x 10G/Multigigabit đồng hoặc 2x 10G/Multigigabit sợi quang</t>
-  </si>
-  <si>
     <t>Nguồn cấp</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Sử dụng giấy phép thông minh</t>
+  </si>
+  <si>
+    <t>2x 10G/Multigigabit đồng</t>
   </si>
 </sst>
 </file>
@@ -672,17 +672,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9030450F-E3C5-465E-AA2A-38CC7F619816}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.59765625" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,37 +688,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -728,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -736,170 +734,170 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="55.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="55.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
